--- a/biology/Zoologie/Bogertophis/Bogertophis.xlsx
+++ b/biology/Zoologie/Bogertophis/Bogertophis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bogertophis est un genre de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bogertophis est un genre de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le sud des États-Unis (Californie, Nouveau-Mexique et Texas) et au Mexique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le sud des États-Unis (Californie, Nouveau-Mexique et Texas) et au Mexique.
 </t>
         </is>
       </c>
@@ -568,9 +584,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre a été choisi en l'honneur de Charles Mitchill Bogert, herpétologue américain[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre a été choisi en l'honneur de Charles Mitchill Bogert, herpétologue américain.
 </t>
         </is>
       </c>
@@ -599,9 +617,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (11 août 2011)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (11 août 2011) :
 Bogertophis rosaliae (Mocquard, 1899)
 Bogertophis subocularis (Brown, 1901)</t>
         </is>
@@ -631,7 +651,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dowling &amp; Price, 1988 : A proposed new genus for Elaphe subocularis and Elaphe rosaliae. The Snake, vol. 20, p. 52-63</t>
         </is>
